--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_497__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_497__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,52 +5873,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4.206013202667236</c:v>
+                  <c:v>4.206015586853027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.99543571472168</c:v>
+                  <c:v>14.99543762207031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.38429546356201</c:v>
+                  <c:v>13.38429069519043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.455364227294922</c:v>
+                  <c:v>8.45536994934082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.35730743408203</c:v>
+                  <c:v>42.3573112487793</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.69881057739258</c:v>
+                  <c:v>17.69881629943848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.98405075073242</c:v>
+                  <c:v>32.98406982421875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.874817848205566</c:v>
+                  <c:v>9.874809265136719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.98062324523926</c:v>
+                  <c:v>10.98062610626221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.176226794719696</c:v>
+                  <c:v>-0.176224485039711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.18131637573242</c:v>
+                  <c:v>30.18130683898926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.047116994857788</c:v>
+                  <c:v>3.047111034393311</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.23544311523438</c:v>
+                  <c:v>27.23543167114258</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.22145366668701</c:v>
+                  <c:v>11.22143936157227</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.217978477478027</c:v>
+                  <c:v>8.217983245849609</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.34494209289551</c:v>
+                  <c:v>31.34494018554688</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>25.3851318359375</c:v>
@@ -5927,10 +5927,10 @@
                   <c:v>18.15572166442871</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.68952941894531</c:v>
+                  <c:v>12.68953895568848</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.79730033874512</c:v>
+                  <c:v>19.79731369018555</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>27.49276161193848</c:v>
@@ -5939,7 +5939,7 @@
                   <c:v>11.14381122589111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.94584274291992</c:v>
+                  <c:v>18.94585800170898</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>25.76792335510254</c:v>
@@ -5948,109 +5948,109 @@
                   <c:v>5.521351337432861</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.43386459350586</c:v>
+                  <c:v>11.43386936187744</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.96037101745605</c:v>
+                  <c:v>19.96037292480469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.03110885620117</c:v>
+                  <c:v>18.03111267089844</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>22.64104843139648</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.65779495239258</c:v>
+                  <c:v>20.65779876708984</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>22.71912384033203</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.13676071166992</c:v>
+                  <c:v>10.13676643371582</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>21.10967826843262</c:v>
+                  <c:v>21.10967636108398</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.15265083312988</c:v>
+                  <c:v>13.15264892578125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.55387592315674</c:v>
+                  <c:v>10.55387115478516</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34.04838943481445</c:v>
+                  <c:v>34.04838180541992</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.696802139282227</c:v>
+                  <c:v>9.696797370910645</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.561004161834717</c:v>
+                  <c:v>4.561006546020508</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.1876106262207</c:v>
+                  <c:v>13.18761348724365</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>17.70918083190918</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.19923210144043</c:v>
+                  <c:v>24.19924163818359</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>29.27426528930664</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.3921017348766327</c:v>
+                  <c:v>-0.3921023011207581</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.31839942932129</c:v>
+                  <c:v>20.31838798522949</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.93354797363281</c:v>
+                  <c:v>25.93353462219238</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.57332611083984</c:v>
+                  <c:v>15.57332134246826</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.85916519165039</c:v>
+                  <c:v>14.85916233062744</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.57006740570068</c:v>
+                  <c:v>15.57008075714111</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20.71466636657715</c:v>
+                  <c:v>20.71467208862305</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19.52156257629395</c:v>
+                  <c:v>19.52155685424805</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>14.35782623291016</c:v>
+                  <c:v>14.35782432556152</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.97828960418701</c:v>
+                  <c:v>15.97829627990723</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>24.42279624938965</c:v>
+                  <c:v>24.42279052734375</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.39126396179199</c:v>
+                  <c:v>17.39125633239746</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21.07287406921387</c:v>
+                  <c:v>21.07286834716797</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20.4029426574707</c:v>
+                  <c:v>20.40293884277344</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.831140041351318</c:v>
+                  <c:v>6.831149578094482</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15.68433570861816</c:v>
+                  <c:v>15.68433094024658</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>5.652015686035156</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.14894485473633</c:v>
+                  <c:v>20.14894866943359</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>24.50066184997559</c:v>
@@ -6065,16 +6065,16 @@
                   <c:v>20.62954330444336</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.91876983642578</c:v>
+                  <c:v>11.91876220703125</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18.29298210144043</c:v>
+                  <c:v>18.29299354553223</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>15.37954235076904</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.05868721008301</c:v>
+                  <c:v>17.05868530273438</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>9.443638801574707</c:v>
@@ -6086,73 +6086,73 @@
                   <c:v>19.51092529296875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30.77162933349609</c:v>
+                  <c:v>30.7716236114502</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.95436668395996</c:v>
+                  <c:v>14.9543571472168</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>11.22745513916016</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21.59968376159668</c:v>
+                  <c:v>21.59967041015625</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>19.93470191955566</c:v>
+                  <c:v>19.93469619750977</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.169208526611328</c:v>
+                  <c:v>9.169207572937012</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.34535026550293</c:v>
+                  <c:v>2.345345735549927</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>23.67435455322266</c:v>
+                  <c:v>23.67435073852539</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-4.13144588470459</c:v>
+                  <c:v>-4.131453514099121</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.96719360351562</c:v>
+                  <c:v>15.96719074249268</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.91666793823242</c:v>
+                  <c:v>18.91666030883789</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>18.73899459838867</c:v>
+                  <c:v>18.73899841308594</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>24.26763343811035</c:v>
+                  <c:v>24.26763725280762</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14.71239376068115</c:v>
+                  <c:v>14.71239948272705</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.6141511797904968</c:v>
+                  <c:v>0.6141488552093506</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.073018074035645</c:v>
+                  <c:v>6.073020458221436</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>29.59751892089844</c:v>
+                  <c:v>29.59750938415527</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>14.88579368591309</c:v>
+                  <c:v>14.88579654693604</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.858712196350098</c:v>
+                  <c:v>8.858725547790527</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.00998878479004</c:v>
+                  <c:v>19.0099925994873</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.809023857116699</c:v>
+                  <c:v>8.809016227722168</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>16.66498947143555</c:v>
+                  <c:v>16.66498374938965</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.54196262359619</c:v>
+                  <c:v>15.54197692871094</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0.2532656192779541</c:v>
@@ -6164,7 +6164,7 @@
                   <c:v>15.97736930847168</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.12072944641113</c:v>
+                  <c:v>28.12071990966797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.206013202667236</v>
+        <v>4.206015586853027</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>14.99543571472168</v>
+        <v>14.99543762207031</v>
       </c>
       <c r="G3">
         <v>84</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.38429546356201</v>
+        <v>13.38429069519043</v>
       </c>
       <c r="G4">
         <v>84</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8.455364227294922</v>
+        <v>8.45536994934082</v>
       </c>
       <c r="G5">
         <v>84</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>42.35730743408203</v>
+        <v>42.3573112487793</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.69881057739258</v>
+        <v>17.69881629943848</v>
       </c>
       <c r="G7">
         <v>84</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.98405075073242</v>
+        <v>32.98406982421875</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>9.874817848205566</v>
+        <v>9.874809265136719</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.98062324523926</v>
+        <v>10.98062610626221</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.176226794719696</v>
+        <v>-0.176224485039711</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.18131637573242</v>
+        <v>30.18130683898926</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>3.047116994857788</v>
+        <v>3.047111034393311</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.23544311523438</v>
+        <v>27.23543167114258</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>11.22145366668701</v>
+        <v>11.22143936157227</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>8.217978477478027</v>
+        <v>8.217983245849609</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>31.34494209289551</v>
+        <v>31.34494018554688</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>12.68952941894531</v>
+        <v>12.68953895568848</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.79730033874512</v>
+        <v>19.79731369018555</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.94584274291992</v>
+        <v>18.94585800170898</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>11.43386459350586</v>
+        <v>11.43386936187744</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>19.96037101745605</v>
+        <v>19.96037292480469</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>18.03110885620117</v>
+        <v>18.03111267089844</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20.65779495239258</v>
+        <v>20.65779876708984</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>10.13676071166992</v>
+        <v>10.13676643371582</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>21.10967826843262</v>
+        <v>21.10967636108398</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>13.15265083312988</v>
+        <v>13.15264892578125</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>10.55387592315674</v>
+        <v>10.55387115478516</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>34.04838943481445</v>
+        <v>34.04838180541992</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>9.696802139282227</v>
+        <v>9.696797370910645</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4.561004161834717</v>
+        <v>4.561006546020508</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13.1876106262207</v>
+        <v>13.18761348724365</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>24.19923210144043</v>
+        <v>24.19924163818359</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.3921017348766327</v>
+        <v>-0.3921023011207581</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>20.31839942932129</v>
+        <v>20.31838798522949</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>25.93354797363281</v>
+        <v>25.93353462219238</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>15.57332611083984</v>
+        <v>15.57332134246826</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>14.85916519165039</v>
+        <v>14.85916233062744</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>15.57006740570068</v>
+        <v>15.57008075714111</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>20.71466636657715</v>
+        <v>20.71467208862305</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>19.52156257629395</v>
+        <v>19.52155685424805</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>14.35782623291016</v>
+        <v>14.35782432556152</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>15.97828960418701</v>
+        <v>15.97829627990723</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>24.42279624938965</v>
+        <v>24.42279052734375</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>17.39126396179199</v>
+        <v>17.39125633239746</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>21.07287406921387</v>
+        <v>21.07286834716797</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>20.4029426574707</v>
+        <v>20.40293884277344</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>6.831140041351318</v>
+        <v>6.831149578094482</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>15.68433570861816</v>
+        <v>15.68433094024658</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>20.14894485473633</v>
+        <v>20.14894866943359</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>11.91876983642578</v>
+        <v>11.91876220703125</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>18.29298210144043</v>
+        <v>18.29299354553223</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>17.05868721008301</v>
+        <v>17.05868530273438</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>30.77162933349609</v>
+        <v>30.7716236114502</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>14.95436668395996</v>
+        <v>14.9543571472168</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>21.59968376159668</v>
+        <v>21.59967041015625</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>19.93470191955566</v>
+        <v>19.93469619750977</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>9.169208526611328</v>
+        <v>9.169207572937012</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>2.34535026550293</v>
+        <v>2.345345735549927</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>23.67435455322266</v>
+        <v>23.67435073852539</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-4.13144588470459</v>
+        <v>-4.131453514099121</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>15.96719360351562</v>
+        <v>15.96719074249268</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>18.91666793823242</v>
+        <v>18.91666030883789</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>18.73899459838867</v>
+        <v>18.73899841308594</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>24.26763343811035</v>
+        <v>24.26763725280762</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>14.71239376068115</v>
+        <v>14.71239948272705</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.6141511797904968</v>
+        <v>0.6141488552093506</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.073018074035645</v>
+        <v>6.073020458221436</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>29.59751892089844</v>
+        <v>29.59750938415527</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>14.88579368591309</v>
+        <v>14.88579654693604</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>8.858712196350098</v>
+        <v>8.858725547790527</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>19.00998878479004</v>
+        <v>19.0099925994873</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>8.809023857116699</v>
+        <v>8.809016227722168</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>16.66498947143555</v>
+        <v>16.66498374938965</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>15.54196262359619</v>
+        <v>15.54197692871094</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>28.12072944641113</v>
+        <v>28.12071990966797</v>
       </c>
     </row>
     <row r="100" spans="1:6">
